--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,30 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,18 +42,6 @@
   </si>
   <si>
     <t>Int2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,63 +401,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
